--- a/insectlist.xlsx
+++ b/insectlist.xlsx
@@ -428,7 +428,6 @@
           <t>September-June (Northern) / March-December (Southern)</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -457,7 +456,6 @@
           <t>September-June (Northern) / March-April, September-December (Southern)</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -486,7 +484,6 @@
           <t>March-September (Northern) / September-March (Southern)</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -515,7 +512,6 @@
           <t>March-June (Northern) / September-December (Southern)</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -544,7 +540,6 @@
           <t>April-August (Northern) / October-February (Southern)</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -573,7 +568,6 @@
           <t>Year-round (Northern and Southern)</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -599,7 +593,6 @@
           <t>May-August (Northern) / December-March (Southern)</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -628,7 +621,6 @@
           <t>September-November (Northern) / March-May (Southern)</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -657,7 +649,6 @@
           <t>June-September, December-March (Northern) / December-March, June-September (Southern)</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -686,7 +677,6 @@
           <t>April-September (Northern) / November-March (Southern)</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -715,7 +705,6 @@
           <t>April-September, December-February (Northern) / November-March, June-August (Southern)</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -744,7 +733,6 @@
           <t>May-September (Northern) / November-March (Southern)</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -773,7 +761,6 @@
           <t>Year-round (Northern and Southern)</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -802,7 +789,6 @@
           <t>April-September (Northern) / October-March (Southern)</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -831,7 +817,6 @@
           <t>April-September (Northern) / October-March (Southern)</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -860,7 +845,6 @@
           <t>April-November (Northern) / November-May (Southern)</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -889,7 +873,6 @@
           <t>August-November (Northern) / February-May (Southern)</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -918,7 +901,6 @@
           <t>August-November (Northern) / February-May (Southern)</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -947,7 +929,6 @@
           <t>July-September (Northern) / January-March (Southern)</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -976,7 +957,6 @@
           <t>September-November (Northern) / March-May (Southern)</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1005,7 +985,6 @@
           <t>September-October (Northern) / March-April (Southern)</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1034,7 +1013,6 @@
           <t>March-November (Northern) / September-May (Southern)</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1063,7 +1041,6 @@
           <t>March-November (Northern) / September-May (Southern)</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1092,7 +1069,6 @@
           <t>March-July (Northern) / March-July (Southern)</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1121,7 +1097,6 @@
           <t>Year-round (Northern and Southern)</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1147,7 +1122,6 @@
           <t>July-August (Northern) / January-February (Southern)</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1173,7 +1147,6 @@
           <t>July-August (Northern) / January-February (Southern)</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1199,7 +1172,6 @@
           <t>July-August (Northern) / January-February (Southern)</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1228,7 +1200,6 @@
           <t>August-September (Northern) / February-March (Southern)</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1254,7 +1225,6 @@
           <t>July-August (Northern) / January-February (Southern)</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1280,7 +1250,6 @@
           <t>July-August (Northern) / January-February (Southern)</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1309,7 +1278,6 @@
           <t>September-October (Northern) / March-April (Southern)</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1338,7 +1306,6 @@
           <t>April-October (Northern) / October-April (Southern)</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1367,7 +1334,6 @@
           <t>May-October (Northern) / November-April (Southern)</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1393,7 +1359,6 @@
           <t>November-February (Northern) / May-August (Southern)</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1419,7 +1384,6 @@
           <t>June (Northern) / December (Southern)</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1448,7 +1412,6 @@
           <t>November-May (Northern) / May-November (Southern)</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1477,7 +1440,6 @@
           <t>May-September (Northern) / November-March (Southern)</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1506,7 +1468,6 @@
           <t>May-September (Northern) / November-March (Southern)</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1535,7 +1496,6 @@
           <t>April-September (Northern) / October-March (Southern)</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1564,7 +1524,6 @@
           <t>March-November (Northern) / September-May (Southern)</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1593,7 +1552,6 @@
           <t>March-November (Northern) / September-May (Southern)</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1622,7 +1580,6 @@
           <t>March-June, October (Northern) / September-December, April (Southern)</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1651,7 +1608,6 @@
           <t>February-November (Northern) / August-May (Southern)</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1680,7 +1636,6 @@
           <t>April-August (Northern) / October-February (Southern)</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1709,7 +1664,6 @@
           <t>May-June, September-November (Northern) / November-December, March-April (Southern)</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1738,7 +1692,6 @@
           <t>Year-round (Northern and Southern)</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1767,7 +1720,6 @@
           <t>May-September (Northern) / November-March (Southern)</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1788,7 +1740,6 @@
           <t>July-August (Northern) / January-February (Southern)</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1809,7 +1760,6 @@
           <t>December-February (Northern) / June-August (Southern)</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1838,7 +1788,6 @@
           <t>July-September (Northern) / January-March (Southern)</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1864,7 +1813,6 @@
           <t>July-August (Northern) / January-February (Southern)</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1890,7 +1838,6 @@
           <t>June-August (Northern) / December-February (Southern)</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1919,7 +1866,6 @@
           <t>June-September (Northern) / December-March (Southern)</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1945,7 +1891,6 @@
           <t>July-August (Northern) / January-February (Southern)</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1971,7 +1916,6 @@
           <t>July-August (Northern) / January-February (Southern)</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1997,7 +1941,6 @@
           <t>July-August (Northern) / January-February (Southern)</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2026,7 +1969,6 @@
           <t>June-September (Northern) / December-March (Southern)</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2052,7 +1994,6 @@
           <t>July-August (Northern) / January-February (Southern)</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2078,7 +2019,6 @@
           <t>July-August (Northern) / January-February (Southern)</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2104,7 +2044,6 @@
           <t>July-August (Northern) / January-February (Southern)</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2130,7 +2069,6 @@
           <t>July-August (Northern) / January-February (Southern)</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2156,7 +2094,6 @@
           <t>July-August (Northern) / January-February (Southern)</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2182,7 +2119,6 @@
           <t>July-August (Northern) / January-February (Southern)</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2208,7 +2144,6 @@
           <t>July-August (Northern) / January-February (Southern)</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2234,7 +2169,6 @@
           <t>July-November (Northern) / January-May (Southern)</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2263,7 +2197,6 @@
           <t>July-August (Northern) / January-March (Southern)</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2292,7 +2225,6 @@
           <t>Year-round (Northern and Southern)</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2318,7 +2250,6 @@
           <t>Year-round (Northern and Southern)</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2347,7 +2278,6 @@
           <t>Year-round (Northern and Southern)</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2376,7 +2306,6 @@
           <t>Year-round (Northern and Southern)</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2402,7 +2331,6 @@
           <t>Year-round (Northern and Southern)</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2431,7 +2359,6 @@
           <t>June-September (Northern) / December-March (Southern)</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2457,7 +2384,6 @@
           <t>April-November (Northern) / October-May (Southern)</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2486,7 +2412,6 @@
           <t>Year-round (Northern and Southern)</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2515,7 +2440,6 @@
           <t>September-June (Northern) / March-December (Southern)</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2544,7 +2468,6 @@
           <t>September-June (Northern) / March-December (Southern)</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2573,7 +2496,6 @@
           <t>Year-round (Northern and Southern)</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2602,7 +2524,6 @@
           <t>November-April (Northern) / May-October (Southern)</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2631,7 +2552,6 @@
           <t>May-October (Northern) / November-April (Southern)</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/insectlist.xlsx
+++ b/insectlist.xlsx
@@ -471,8 +471,10 @@
           <t>Flying</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>240</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
